--- a/Codebook.xlsx
+++ b/Codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43a4b1b266accfbe/Documents/Masters/Survey Data Analysis/Group project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{002A90AC-9E69-4C80-A5B5-F21571A7C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40832E8B-6C98-4DEE-A831-2928AB7043D3}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{002A90AC-9E69-4C80-A5B5-F21571A7C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80000F86-2C1F-4ECA-8117-E283B58BD1D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2915FAD4-60C1-45BE-941A-90F825BE2F7C}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{2915FAD4-60C1-45BE-941A-90F825BE2F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,53 @@
     <t>Explanation of the data</t>
   </si>
   <si>
+    <t>The number of people deceased reported in this municipality</t>
+  </si>
+  <si>
+    <t>Population of the municipality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population per square kilometer of the municipality </t>
+  </si>
+  <si>
+    <t>Size of the municipality in square kilometers</t>
+  </si>
+  <si>
+    <t>Sewage Treatment Plant code</t>
+  </si>
+  <si>
+    <t>Sewage Treatment Plant name</t>
+  </si>
+  <si>
+    <t>Sewage Treatment Plant X-coördinate</t>
+  </si>
+  <si>
+    <t>Sewage Treatment Plant Y-coördinate</t>
+  </si>
+  <si>
+    <t>Sewage Treatment Plant postal code</t>
+  </si>
+  <si>
+    <t>Name of the Security Region in which the Sewage Treatment Plant is located</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate of the percentage of the area for which this Sewage Treatment Plant is responsible falls within this Security Region. </t>
+  </si>
+  <si>
+    <t>The average concentration of SARS-CoV-2 RNA per mL of unfiltered sewage water. Recorded up to and including the 6th of September 2020</t>
+  </si>
+  <si>
+    <t>The average concentration of SARS-CoV-2 RNA, measured in the daily amount of sewage water, per 100,000 inhabitants of this municipality. Recorded from the 7th of September 2020 onward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time frame of the sampling. TRUE = 24-hour sampling of the sewage water. FALSE = sample taken on 1 moment of the sewage water. </t>
+  </si>
+  <si>
+    <t>The total number of registered COVID-19 patients that were admitted to the hospital, reported in this municipality as of this date</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">The number of </t>
+      <t>The total number cases</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +240,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">new cases </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -205,76 +250,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>of COVID-19 patients reported in this municipality on this date</t>
+      <t>of COVID-19 patients reported in this municipality as of this date</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>The number of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> registered COVID-19 patients that were admitted to the hospital, reported in this municipality on this date</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of people deceased reported in this municipality</t>
-  </si>
-  <si>
-    <t>Population of the municipality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population per square kilometer of the municipality </t>
-  </si>
-  <si>
-    <t>Size of the municipality in square kilometers</t>
-  </si>
-  <si>
-    <t>Sewage Treatment Plant code</t>
-  </si>
-  <si>
-    <t>Sewage Treatment Plant name</t>
-  </si>
-  <si>
-    <t>Sewage Treatment Plant X-coördinate</t>
-  </si>
-  <si>
-    <t>Sewage Treatment Plant Y-coördinate</t>
-  </si>
-  <si>
-    <t>Sewage Treatment Plant postal code</t>
-  </si>
-  <si>
-    <t>Name of the Security Region in which the Sewage Treatment Plant is located</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimate of the percentage of the area for which this Sewage Treatment Plant is responsible falls within this Security Region. </t>
-  </si>
-  <si>
-    <t>The average concentration of SARS-CoV-2 RNA per mL of unfiltered sewage water. Recorded up to and including the 6th of September 2020</t>
-  </si>
-  <si>
-    <t>The average concentration of SARS-CoV-2 RNA, measured in the daily amount of sewage water, per 100,000 inhabitants of this municipality. Recorded from the 7th of September 2020 onward.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time frame of the sampling. TRUE = 24-hour sampling of the sewage water. FALSE = sample taken on 1 moment of the sewage water. </t>
   </si>
 </sst>
 </file>
@@ -660,7 +637,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -766,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -777,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -799,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -810,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -822,7 +799,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +810,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -844,7 +821,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -855,7 +832,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -866,7 +843,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -877,7 +854,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -888,7 +865,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -899,7 +876,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -910,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -921,7 +898,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">

--- a/Codebook.xlsx
+++ b/Codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43a4b1b266accfbe/Documents/Masters/Survey Data Analysis/Group project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{002A90AC-9E69-4C80-A5B5-F21571A7C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80000F86-2C1F-4ECA-8117-E283B58BD1D0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{002A90AC-9E69-4C80-A5B5-F21571A7C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4125F3DD-97DE-4867-A26E-8D2E4A97B249}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{2915FAD4-60C1-45BE-941A-90F825BE2F7C}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{2915FAD4-60C1-45BE-941A-90F825BE2F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>The average concentration of SARS-CoV-2 RNA per mL of unfiltered sewage water. Recorded up to and including the 6th of September 2020</t>
-  </si>
-  <si>
-    <t>The average concentration of SARS-CoV-2 RNA, measured in the daily amount of sewage water, per 100,000 inhabitants of this municipality. Recorded from the 7th of September 2020 onward.</t>
   </si>
   <si>
     <t xml:space="preserve">Time frame of the sampling. TRUE = 24-hour sampling of the sewage water. FALSE = sample taken on 1 moment of the sewage water. </t>
@@ -252,6 +249,9 @@
       </rPr>
       <t>of COVID-19 patients reported in this municipality as of this date</t>
     </r>
+  </si>
+  <si>
+    <t>The average concentration of SARS-CoV-2 RNA, measured in the daily amount of sewage water, per 100,000 inhabitants. Recorded from the 7th of September 2020 onward.</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D390D67-2B15-404F-BEDD-ED9CB2C4BCE5}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -887,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
